--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dll4</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll4</t>
-  </si>
-  <si>
-    <t>Notch2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H2">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I2">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J2">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>70.18181368460668</v>
+        <v>28.37269162210489</v>
       </c>
       <c r="R2">
-        <v>631.63632316146</v>
+        <v>255.354224598944</v>
       </c>
       <c r="S2">
-        <v>0.01234704826807298</v>
+        <v>0.009017726030655249</v>
       </c>
       <c r="T2">
-        <v>0.01292917963425481</v>
+        <v>0.009456027057760741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H3">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I3">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J3">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>824.7429126179293</v>
+        <v>430.5951665043403</v>
       </c>
       <c r="R3">
-        <v>7422.686213561365</v>
+        <v>3875.356498539063</v>
       </c>
       <c r="S3">
-        <v>0.1450965715506749</v>
+        <v>0.1368565694569253</v>
       </c>
       <c r="T3">
-        <v>0.1519374993247652</v>
+        <v>0.1435083988377682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H4">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I4">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J4">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>1787.213350891044</v>
+        <v>1294.09267694538</v>
       </c>
       <c r="R4">
-        <v>16084.9201580194</v>
+        <v>11646.83409250842</v>
       </c>
       <c r="S4">
-        <v>0.3144234716982841</v>
+        <v>0.411303001294346</v>
       </c>
       <c r="T4">
-        <v>0.3292477245209324</v>
+        <v>0.4312941306883918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H5">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I5">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J5">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>698.2830189807225</v>
+        <v>402.718724705285</v>
       </c>
       <c r="R5">
-        <v>4189.698113884336</v>
+        <v>2416.31234823171</v>
       </c>
       <c r="S5">
-        <v>0.1228485513195244</v>
+        <v>0.1279965670926259</v>
       </c>
       <c r="T5">
-        <v>0.08576036168499807</v>
+        <v>0.08947850767210269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H6">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I6">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J6">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>2184.25012498378</v>
+        <v>907.1846947210638</v>
       </c>
       <c r="R6">
-        <v>19658.25112485402</v>
+        <v>8164.662252489574</v>
       </c>
       <c r="S6">
-        <v>0.3842739351809374</v>
+        <v>0.288331581125868</v>
       </c>
       <c r="T6">
-        <v>0.4023914565526959</v>
+        <v>0.3023457602797712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.437953</v>
       </c>
       <c r="I7">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J7">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>0.2640367542483333</v>
+        <v>0.2044512534791111</v>
       </c>
       <c r="R7">
-        <v>2.376330788235</v>
+        <v>1.840061281312</v>
       </c>
       <c r="S7">
-        <v>4.645184240891944E-05</v>
+        <v>6.498098294848689E-05</v>
       </c>
       <c r="T7">
-        <v>4.864192654045152E-05</v>
+        <v>6.813934365625579E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.437953</v>
       </c>
       <c r="I8">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J8">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
         <v>3.102832917877667</v>
@@ -948,10 +948,10 @@
         <v>27.925496260899</v>
       </c>
       <c r="S8">
-        <v>0.0005458797057734656</v>
+        <v>0.0009861770446382351</v>
       </c>
       <c r="T8">
-        <v>0.0005716165209209808</v>
+        <v>0.001034109573316021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.437953</v>
       </c>
       <c r="I9">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J9">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>6.723821849905555</v>
+        <v>9.325124082111778</v>
       </c>
       <c r="R9">
-        <v>60.51439664914999</v>
+        <v>83.92611673900599</v>
       </c>
       <c r="S9">
-        <v>0.0011829183169844</v>
+        <v>0.002963815181666962</v>
       </c>
       <c r="T9">
-        <v>0.001238689853710975</v>
+        <v>0.003107869595591211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.437953</v>
       </c>
       <c r="I10">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J10">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>2.627067785779333</v>
+        <v>2.901957599305</v>
       </c>
       <c r="R10">
-        <v>15.762406714676</v>
+        <v>17.41174559583</v>
       </c>
       <c r="S10">
-        <v>0.0004621786051338752</v>
+        <v>0.0009223326052972165</v>
       </c>
       <c r="T10">
-        <v>0.0003226460866946306</v>
+        <v>0.0006447746761801402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.437953</v>
       </c>
       <c r="I11">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J11">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>8.217546443854999</v>
+        <v>6.537097376700222</v>
       </c>
       <c r="R11">
-        <v>73.95791799469499</v>
+        <v>58.833876390302</v>
       </c>
       <c r="S11">
-        <v>0.001445708471476328</v>
+        <v>0.002077693366704432</v>
       </c>
       <c r="T11">
-        <v>0.001513869883769284</v>
+        <v>0.002178678374847405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H12">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I12">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J12">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>0.428376879255</v>
+        <v>0.3368551163662223</v>
       </c>
       <c r="R12">
-        <v>3.855391913295</v>
+        <v>3.031696047296</v>
       </c>
       <c r="S12">
-        <v>7.536411111940328E-05</v>
+        <v>0.0001070630587987101</v>
       </c>
       <c r="T12">
-        <v>7.891733388281151E-05</v>
+        <v>0.0001122667929193752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H13">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I13">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J13">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>5.034079009166999</v>
+        <v>5.112246199671334</v>
       </c>
       <c r="R13">
-        <v>45.30671108250299</v>
+        <v>46.010215797042</v>
       </c>
       <c r="S13">
-        <v>0.0008856427790652968</v>
+        <v>0.001624831237159673</v>
       </c>
       <c r="T13">
-        <v>0.0009273985436604259</v>
+        <v>0.001703805160042138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H14">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I14">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J14">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>10.90882149695</v>
+        <v>15.36413059032756</v>
       </c>
       <c r="R14">
-        <v>98.17939347254998</v>
+        <v>138.277175312948</v>
       </c>
       <c r="S14">
-        <v>0.001919183026188683</v>
+        <v>0.004883199740374326</v>
       </c>
       <c r="T14">
-        <v>0.002009667538173388</v>
+        <v>0.005120544660201285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H15">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I15">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J15">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>4.262191083461999</v>
+        <v>4.78128281519</v>
       </c>
       <c r="R15">
-        <v>25.57314650077199</v>
+        <v>28.68769689114</v>
       </c>
       <c r="S15">
-        <v>0.0007498449565830781</v>
+        <v>0.001519640754452496</v>
       </c>
       <c r="T15">
-        <v>0.0005234654702355948</v>
+        <v>0.001062334639082295</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H16">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I16">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J16">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>13.332260922435</v>
+        <v>10.77056100196845</v>
       </c>
       <c r="R16">
-        <v>119.990348301915</v>
+        <v>96.93504901771601</v>
       </c>
       <c r="S16">
-        <v>0.002345537404770058</v>
+        <v>0.003423220102125991</v>
       </c>
       <c r="T16">
-        <v>0.002456123422109931</v>
+        <v>0.003589603609638801</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H17">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I17">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J17">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N17">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O17">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P17">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q17">
-        <v>0.71741058958</v>
+        <v>0.2308740453013333</v>
       </c>
       <c r="R17">
-        <v>4.30446353748</v>
+        <v>1.385244271808</v>
       </c>
       <c r="S17">
-        <v>0.0001262136544002396</v>
+        <v>7.337897002674496E-05</v>
       </c>
       <c r="T17">
-        <v>8.810953433872208E-05</v>
+        <v>5.129700648735103E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H18">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I18">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J18">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P18">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q18">
-        <v>8.430664129772</v>
+        <v>3.503835635411</v>
       </c>
       <c r="R18">
-        <v>50.583984778632</v>
+        <v>21.023013812466</v>
       </c>
       <c r="S18">
-        <v>0.001483202149918758</v>
+        <v>0.001113628211148167</v>
       </c>
       <c r="T18">
-        <v>0.001035420861399962</v>
+        <v>0.0007785036169210823</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H19">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I19">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J19">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N19">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O19">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P19">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q19">
-        <v>18.26920275286666</v>
+        <v>10.53028085246733</v>
       </c>
       <c r="R19">
-        <v>109.6152165172</v>
+        <v>63.181685114804</v>
       </c>
       <c r="S19">
-        <v>0.003214090892870898</v>
+        <v>0.003346851578911301</v>
       </c>
       <c r="T19">
-        <v>0.002243751305981079</v>
+        <v>0.002339682160883962</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H20">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I20">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J20">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N20">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O20">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P20">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q20">
-        <v>7.137969311991999</v>
+        <v>3.276999670305</v>
       </c>
       <c r="R20">
-        <v>28.551877247968</v>
+        <v>13.10799868122</v>
       </c>
       <c r="S20">
-        <v>0.001255779054489147</v>
+        <v>0.001041532668910943</v>
       </c>
       <c r="T20">
-        <v>0.0005844381272857983</v>
+        <v>0.000485402543848186</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H21">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I21">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J21">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N21">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O21">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P21">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q21">
-        <v>22.32778105446</v>
+        <v>7.381936232744667</v>
       </c>
       <c r="R21">
-        <v>133.96668632676</v>
+        <v>44.291617396468</v>
       </c>
       <c r="S21">
-        <v>0.003928114363605422</v>
+        <v>0.002346209496415773</v>
       </c>
       <c r="T21">
-        <v>0.002742209858760434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.053283</v>
-      </c>
-      <c r="H22">
-        <v>0.159849</v>
-      </c>
-      <c r="I22">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J22">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.808665</v>
-      </c>
-      <c r="N22">
-        <v>5.425995</v>
-      </c>
-      <c r="O22">
-        <v>0.01261203239065773</v>
-      </c>
-      <c r="P22">
-        <v>0.01316260230515319</v>
-      </c>
-      <c r="Q22">
-        <v>0.09637109719500002</v>
-      </c>
-      <c r="R22">
-        <v>0.8673398747550002</v>
-      </c>
-      <c r="S22">
-        <v>1.695451465619225E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.775387613639965E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.053283</v>
-      </c>
-      <c r="H23">
-        <v>0.159849</v>
-      </c>
-      <c r="I23">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J23">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>21.254561</v>
-      </c>
-      <c r="N23">
-        <v>63.763683</v>
-      </c>
-      <c r="O23">
-        <v>0.1482105374854993</v>
-      </c>
-      <c r="P23">
-        <v>0.1546805702623864</v>
-      </c>
-      <c r="Q23">
-        <v>1.132506773763</v>
-      </c>
-      <c r="R23">
-        <v>10.192560963867</v>
-      </c>
-      <c r="S23">
-        <v>0.0001992413000668627</v>
-      </c>
-      <c r="T23">
-        <v>0.0002086350116398286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.053283</v>
-      </c>
-      <c r="H24">
-        <v>0.159849</v>
-      </c>
-      <c r="I24">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J24">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>46.05851666666666</v>
-      </c>
-      <c r="N24">
-        <v>138.17555</v>
-      </c>
-      <c r="O24">
-        <v>0.3211714187346186</v>
-      </c>
-      <c r="P24">
-        <v>0.3351919441403484</v>
-      </c>
-      <c r="Q24">
-        <v>2.45413594355</v>
-      </c>
-      <c r="R24">
-        <v>22.08722349195</v>
-      </c>
-      <c r="S24">
-        <v>0.0004317548002905319</v>
-      </c>
-      <c r="T24">
-        <v>0.0004521109215505905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.053283</v>
-      </c>
-      <c r="H25">
-        <v>0.159849</v>
-      </c>
-      <c r="I25">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J25">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>17.995546</v>
-      </c>
-      <c r="N25">
-        <v>35.99109199999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1254850450689161</v>
-      </c>
-      <c r="P25">
-        <v>0.08730867435819246</v>
-      </c>
-      <c r="Q25">
-        <v>0.958856677518</v>
-      </c>
-      <c r="R25">
-        <v>5.753140065108</v>
-      </c>
-      <c r="S25">
-        <v>0.0001686911331856268</v>
-      </c>
-      <c r="T25">
-        <v>0.0001177629889783835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.053283</v>
-      </c>
-      <c r="H26">
-        <v>0.159849</v>
-      </c>
-      <c r="I26">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J26">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>56.290605</v>
-      </c>
-      <c r="N26">
-        <v>168.871815</v>
-      </c>
-      <c r="O26">
-        <v>0.3925209663203081</v>
-      </c>
-      <c r="P26">
-        <v>0.4096562089339196</v>
-      </c>
-      <c r="Q26">
-        <v>2.999332306215</v>
-      </c>
-      <c r="R26">
-        <v>26.993990755935</v>
-      </c>
-      <c r="S26">
-        <v>0.0005276708995189428</v>
-      </c>
-      <c r="T26">
-        <v>0.0005525492165840543</v>
+        <v>0.00164016371058981</v>
       </c>
     </row>
   </sheetData>
